--- a/biology/Biologie cellulaire et moléculaire/Paul-Émile_Pilet/Paul-Émile_Pilet.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Paul-Émile_Pilet/Paul-Émile_Pilet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul-%C3%89mile_Pilet</t>
+          <t>Paul-Émile_Pilet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul-Émile Pilet, né à Lausanne le 26 juillet 1927, mort le 12 mai 2005 à Pully, est un biologiste suisse, professeur et directeur de l'Institut de biologie et de physiologie végétales de l'Université de Lausanne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paul-%C3%89mile_Pilet</t>
+          <t>Paul-Émile_Pilet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de William, architecte, Paul-Émile Pilet étudie la physique et la biologie à l’Université de Lausanne, où il obtient en 1951 un doctorat ès sciences. Après des stages à la Faculté des sciences de Paris et de Bordeaux, au California Institute of Technology (CALTECH) de Pasadena (États-Unis) et au Bedford College (London University), il revient au pays pour y mener carrière académique à l'Université de Lausanne : privat-docent dès 1952, chargé de cours (1955), professeur extraordinaire (1958), puis professeur ordinaire de 1967 à 1992. ‑ Directeur de l'Institut de biologie et de physiologie végétales de l'Université de Lausanne ; depuis 1965. ‑ Professeur invité pour le diplôme d'études approfondies (DEA) de physiologie végétale à la Sorbonne ; depuis 1980. ‑ Visiting Professor à la Leicester Polytechnic (GB) ; depuis 1970. ‑ Initiateur des enseignements de troisième cycle de phytophysiologie en Suisse romande ; 1992. ‑ Research Fellow à l'Université d'Osaka (Japon). ‑ Dès 1996, Research Visting Professor à la De Montfort University (GB)[1].
-Pilet s’est intéressé à la théorie et l'histoire des sciences, mais surtout à la physiologie des plantes, notamment à la régulation de la croissance par les hormones dans les cellules végétales. D’autres processus biophysiques, tels que l'influence de la gravité sur les cellules, ont également retenu son attention[2].
-Pilet appartient à de nombreuses commission scientifiques : Comité directeur de la revue internationale de méthodologie et d'épistémologie des sciences Dialectica (depuis 1963), Comité international "Space Research: Gravitation Physiology", programme "Spacelab" (depuis 1977) ; "Editorial Boards" de revues internationales de biologie, notamment Physiologie végétale (Paris), Plant Science Letters Amsterdam), Plan and Cell Physiology (Osaka) ; Commission de physiologie gravitationnelle de l'International Union of Biological Sciences ; "Gallileo Foundation" (USA) pour les biorecherches spatiales (1988) ; "Working group for biology" of the European Space Agency (ESA) (depuis 1989). Président fondateur de la Société Suisse de Physiologie végétale (1962) ; 1964-1978 Secrétaire général de l'"International Association of Plant physiologists" (IAPP) ; membre fondateur de l'"European Federation of Plant Physiology" (1975) [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de William, architecte, Paul-Émile Pilet étudie la physique et la biologie à l’Université de Lausanne, où il obtient en 1951 un doctorat ès sciences. Après des stages à la Faculté des sciences de Paris et de Bordeaux, au California Institute of Technology (CALTECH) de Pasadena (États-Unis) et au Bedford College (London University), il revient au pays pour y mener carrière académique à l'Université de Lausanne : privat-docent dès 1952, chargé de cours (1955), professeur extraordinaire (1958), puis professeur ordinaire de 1967 à 1992. ‑ Directeur de l'Institut de biologie et de physiologie végétales de l'Université de Lausanne ; depuis 1965. ‑ Professeur invité pour le diplôme d'études approfondies (DEA) de physiologie végétale à la Sorbonne ; depuis 1980. ‑ Visiting Professor à la Leicester Polytechnic (GB) ; depuis 1970. ‑ Initiateur des enseignements de troisième cycle de phytophysiologie en Suisse romande ; 1992. ‑ Research Fellow à l'Université d'Osaka (Japon). ‑ Dès 1996, Research Visting Professor à la De Montfort University (GB).
+Pilet s’est intéressé à la théorie et l'histoire des sciences, mais surtout à la physiologie des plantes, notamment à la régulation de la croissance par les hormones dans les cellules végétales. D’autres processus biophysiques, tels que l'influence de la gravité sur les cellules, ont également retenu son attention.
+Pilet appartient à de nombreuses commission scientifiques : Comité directeur de la revue internationale de méthodologie et d'épistémologie des sciences Dialectica (depuis 1963), Comité international "Space Research: Gravitation Physiology", programme "Spacelab" (depuis 1977) ; "Editorial Boards" de revues internationales de biologie, notamment Physiologie végétale (Paris), Plant Science Letters Amsterdam), Plan and Cell Physiology (Osaka) ; Commission de physiologie gravitationnelle de l'International Union of Biological Sciences ; "Gallileo Foundation" (USA) pour les biorecherches spatiales (1988) ; "Working group for biology" of the European Space Agency (ESA) (depuis 1989). Président fondateur de la Société Suisse de Physiologie végétale (1962) ; 1964-1978 Secrétaire général de l'"International Association of Plant physiologists" (IAPP) ; membre fondateur de l'"European Federation of Plant Physiology" (1975) .
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paul-%C3%89mile_Pilet</t>
+          <t>Paul-Émile_Pilet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fonds : Pilet (Paul-Emile) (1955-2005) [123 ml : 1568 classeurs 15 boîtes de diapositives]. Collection : Archives privées; Cote : PP 554. Archives cantonales vaudoises.
 </t>
